--- a/ZDD Bb4A maipulatingtestcase.xlsx
+++ b/ZDD Bb4A maipulatingtestcase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee99c45f5c14171f/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CPA\01 CPR101\cpr v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6D169D8-229A-4077-B4F0-588A18D50574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EA5FB59-85DF-43E9-8EB0-357B2A6C8818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1023,7 +1023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
   <si>
     <t>Comments</t>
   </si>
@@ -1473,6 +1473,87 @@
 Type the 1st string to compare (q - to quit) :
 q
 *** End of Comparing Strings Demo ***</t>
+  </si>
+  <si>
+    <t>Drashti Desai 
+7 august 2023</t>
+  </si>
+  <si>
+    <t>Drashti Desai 
+11 august 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handle "a","b"       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+*** Start of Comparing Strings Demo ***
+Type the 1st string to compare (q - to quit):
+q
+*** End of Comparing Strings Demo ***
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** Start of Comparing Strings Demo ***
+Type the 1st string to compare (q - to quit):
+Type the 2nd string to compare:
+bapuji
+'' string is less than 'bapuji'
+Type the 1st string to compare (q - to quit):
+q
+*** End of Comparing Strings Demo ***                </t>
+  </si>
+  <si>
+    <t>"" ,"bapuji"</t>
+  </si>
+  <si>
+    <t>*** Start of Comparing Strings Demo ***
+Type the 1st string to compare (q - to quit):
+Type the 2nd string to compare:
+'' string is equal to ''
+Type the 1st string to compare (q - to quit):
+q
+*** End of Comparing Strings Demo ***</t>
+  </si>
+  <si>
+    <t>"" , ""</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> positive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** Start of Comparing Strings Demo ***
+Type the 1st string to compare (q - to quit):
+huhh
+Type the 2nd string to compare:
+'huhh' string is greater than ''
+Type the 1st string to compare (q - to quit):
+q
+*** End of Comparing Strings Demo ***
+</t>
+  </si>
+  <si>
+    <t>"huhh", ""</t>
+  </si>
+  <si>
+    <t>*** Start of Comparing Strings Demo ***
+Type the 1st string to compare (q - to quit):
+kishorbhai
+Type the 2nd string to compare:
+&amp;
+'kishorbhai' string is greater than '&amp;'
+Type the 1st string to compare (q - to quit):
+q
+*** End of Comparing Strings Demo ***</t>
+  </si>
+  <si>
+    <t>"kishorbhai", "&amp;"</t>
   </si>
 </sst>
 </file>
@@ -2566,13 +2647,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{489FCF92-76BB-4101-9D49-11677A4362B7}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="29.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" style="3" customWidth="1"/>
@@ -2763,7 +2844,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="37" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2914,7 +2995,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="37" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
@@ -2940,35 +3021,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
+    <row r="20" spans="1:7" ht="138.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="29"/>
+      <c r="F20" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="29"/>
+      <c r="F21" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="145.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="25"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="29"/>
+      <c r="F22" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
+      <c r="F23" s="25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="118.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="28"/>
